--- a/NFLStats/Aggregates/WR_aggregate.xlsx
+++ b/NFLStats/Aggregates/WR_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1117,555 @@
         <v>9.666666666666664</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Amari Cooper</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>8.966666666666667</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>59.96666666666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Amari Cooper</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>14.95555555555556</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>49.95555555555555</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Amari Cooper</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1.655555555555557</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-10.01111111111111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Diontae Johnson</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>6.900000000000001</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>47.79999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Diontae Johnson</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>11.075</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>44.13333333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Diontae Johnson</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.1083333333333307</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>-0.8333333333333348</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>-3.666666666666657</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Ray McCloud</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>37.84999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Ray McCloud</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>13.26666666666667</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>8.866666666666667</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Ray McCloud</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>7.766666666666666</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>5.016666666666667</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>18.95000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Tyler Lockett</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>9.533333333333333</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>61.63333333333335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Tyler Lockett</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>11.93333333333333</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>8.066666666666668</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>58.56666666666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Tyler Lockett</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>-1.233333333333334</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>-1.466666666666665</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>-3.066666666666684</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Justin Hardee</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Justin Hardee</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Justin Hardee</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Noah Brown</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>6.866666666666667</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>52.06666666666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Noah Brown</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>8.633333333333333</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Noah Brown</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>3.233333333333334</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1.766666666666666</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0.7333333333333414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>joshreynolds</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>13.44444444444444</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>7.677777777777777</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>51.73333333333333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>joshreynolds</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>13.84444444444444</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>8.077777777777778</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>50.62222222222223</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>joshreynolds</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>-1.1111111111111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>kalifraymond</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>17.23333333333333</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>kalifraymond</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>13.23333333333333</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>10.16666666666667</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>60.43333333333334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>kalifraymond</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>-1.433333333333334</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>3.533333333333339</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Mike Evans</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>15.23333333333333</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>9.366666666666667</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Mike Evans</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>9.066666666666668</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Mike Evans</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>-0.5333333333333332</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>-0.2999999999999989</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>-0.9000000000000057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
